--- a/biology/Médecine/Cancer_du_foie/Cancer_du_foie.xlsx
+++ b/biology/Médecine/Cancer_du_foie/Cancer_du_foie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article donne une classification de différents types de cancer du foie.
 </t>
@@ -511,9 +523,11 @@
           <t>Cancers primitifs du foie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Carcinome hépatocellulaire : survient le plus souvent sur un terrain de cirrhose d'étiologie diverse : alcoolisme, hépatite B, hépatite C, hémochromatose. L'incidence élevée du Carcinome hépatocellulaire est aussi liée à la présence de l'aflatoxine, toxine produite par un champignon de type aspergillus [1]. Ce champignon survit en formant un biofilm[2],[3] lui permettant d'échapper au système immunitaire[4], dans une infection de type aspergillose non invasive.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Carcinome hépatocellulaire : survient le plus souvent sur un terrain de cirrhose d'étiologie diverse : alcoolisme, hépatite B, hépatite C, hémochromatose. L'incidence élevée du Carcinome hépatocellulaire est aussi liée à la présence de l'aflatoxine, toxine produite par un champignon de type aspergillus . Ce champignon survit en formant un biofilm, lui permettant d'échapper au système immunitaire, dans une infection de type aspergillose non invasive.
 Cholangiocarcinome, développé aux dépens des voies biliaires
 Carcinome fibrolamellaire : rare, atteint plutôt la femme
 Hépatoblastome : enfant, hépatocytes fœtaux
@@ -546,7 +560,9 @@
           <t>Cancers secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait du drainage par la veine porte, le foie peut être le siège de métastase de cancers digestifs : estomac, duodénum, intestin grêle, côlon, rectum, pancréas.
 Dans le cas de métastases, les tumeurs sont souvent multiples, en lâcher de ballons. L'histologie permet de déterminer l'origine de ces métastases.
@@ -578,7 +594,9 @@
           <t>Tumeurs hépatiques bénignes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hémangiomes : prévalence (1 à 2 %)
 Adénome hépatocellulaire : rare, atteint la femme, dû aux contraceptifs oraux
